--- a/reports/e4.xlsx
+++ b/reports/e4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -53,16 +53,25 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: Damnation</t>
+    <t>Machine Name: DESKTOP-VJCK8A2</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 20, 2024 05:53:03 PM</t>
+    <t>Date and Time Generated: July 30, 2024 05:11:12 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>
+  </si>
+  <si>
+    <t>July 30, 2024</t>
+  </si>
+  <si>
+    <t>Frank Caones</t>
+  </si>
+  <si>
+    <t>00000006</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16:G16"/>
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -634,13 +643,36 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>222455656</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>300.0</v>
+      </c>
+      <c r="F16">
+        <v>8.04</v>
+      </c>
+      <c r="G16">
+        <v>291.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/reports/e4.xlsx
+++ b/reports/e4.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 30, 2024 05:11:12 PM</t>
+    <t>Date and Time Generated: July 30, 2024 05:43:49 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>

--- a/reports/e4.xlsx
+++ b/reports/e4.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>TinkerPro IT</t>
-  </si>
-  <si>
-    <t>Kinalumsan Rd. Gun-ob 1615(Albania)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>TinkerPro Retail Store</t>
+  </si>
+  <si>
+    <t>Kinalumsan Rd. Gun-ob 6015(Philippines)</t>
+  </si>
+  <si>
+    <t>010-831-417-00000</t>
   </si>
   <si>
     <t>National Athletes and Coaches Sales Book/Report</t>
@@ -47,10 +50,10 @@
     <t>Net Sales</t>
   </si>
   <si>
-    <t>Software: TinkerPro IT</t>
-  </si>
-  <si>
-    <t>Serial No: 9995</t>
+    <t>Software: TinkerPro POS - Wholesale/Retail V1.0</t>
+  </si>
+  <si>
+    <t>Serial No: XXX-XXX-XXX</t>
   </si>
   <si>
     <t>Machine Name: DESKTOP-VJCK8A2</t>
@@ -59,19 +62,19 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 30, 2024 05:43:49 PM</t>
-  </si>
-  <si>
-    <t>User ID: A003</t>
-  </si>
-  <si>
-    <t>July 30, 2024</t>
-  </si>
-  <si>
-    <t>Frank Caones</t>
-  </si>
-  <si>
-    <t>00000006</t>
+    <t>Date and Time Generated: September 2, 2024 04:57:11 PM</t>
+  </si>
+  <si>
+    <t>User ID: A0004</t>
+  </si>
+  <si>
+    <t>September 2, 2024</t>
+  </si>
+  <si>
+    <t>Tranquilino Caones</t>
+  </si>
+  <si>
+    <t>00000003</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2147483647</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -571,37 +574,37 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -612,25 +615,25 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -644,25 +647,25 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>222455656</v>
+        <v>1233</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>300.0</v>
+        <v>61.35</v>
       </c>
       <c r="F16">
-        <v>8.04</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
-        <v>291.96</v>
+        <v>61.35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
